--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wfp-my.sharepoint.com/personal/idrissa_dabo_wfp_org/Documents/Documents/GitHub/CHautomationtraining/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idrissa.dabo\OneDrive - World Food Programme\Documents\GitHub\CHautomationtraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E9D5357-5605-437D-8903-922077AF21DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{6E9D5357-5605-437D-8903-922077AF21DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1C24432E-749D-46ED-8C96-090CF8B26E16}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C0C7425C-E225-450A-A553-A492236A8289}"/>
   </bookViews>
@@ -31,11 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>poqsfmlqsdf</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,15 +381,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE5287D-66B0-4C3C-BC8A-DA5C6E547892}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -402,6 +403,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100433980BACF478F46989D792EC17455F1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d65a71528fdf1e95d9ac84dd95ad826">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c9127654-6309-479f-9003-d42118ec806e" xmlns:ns4="67501b9c-5b3b-478e-924d-f6800b2067a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58be1ef2c53161351ff974dc22d3e8ff" ns3:_="" ns4:_="">
     <xsd:import namespace="c9127654-6309-479f-9003-d42118ec806e"/>
@@ -618,22 +634,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5A4F498-0015-47D4-A84C-7239DD12C3BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="c9127654-6309-479f-9003-d42118ec806e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="67501b9c-5b3b-478e-924d-f6800b2067a8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD998E8E-6230-4D8C-A5C5-417B15A62F7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6092BACC-9B51-4784-9B3D-FCA32D7251B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -650,29 +676,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD998E8E-6230-4D8C-A5C5-417B15A62F7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5A4F498-0015-47D4-A84C-7239DD12C3BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="c9127654-6309-479f-9003-d42118ec806e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="67501b9c-5b3b-478e-924d-f6800b2067a8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\idrissa.dabo\OneDrive - World Food Programme\Documents\GitHub\CHautomationtraining\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william.olander\Documents\GitHub\CHautomationtraining\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{6E9D5357-5605-437D-8903-922077AF21DC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{1C24432E-749D-46ED-8C96-090CF8B26E16}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A13410-F8D1-4276-BA70-B7EFA1B4D6FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C0C7425C-E225-450A-A553-A492236A8289}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{C0C7425C-E225-450A-A553-A492236A8289}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">blah </t>
+  </si>
+  <si>
+    <t>blah</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,21 +388,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE5287D-66B0-4C3C-BC8A-DA5C6E547892}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1">
         <v>2</v>
       </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -403,21 +424,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100433980BACF478F46989D792EC17455F1" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1d65a71528fdf1e95d9ac84dd95ad826">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c9127654-6309-479f-9003-d42118ec806e" xmlns:ns4="67501b9c-5b3b-478e-924d-f6800b2067a8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="58be1ef2c53161351ff974dc22d3e8ff" ns3:_="" ns4:_="">
     <xsd:import namespace="c9127654-6309-479f-9003-d42118ec806e"/>
@@ -634,32 +640,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5A4F498-0015-47D4-A84C-7239DD12C3BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="c9127654-6309-479f-9003-d42118ec806e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="67501b9c-5b3b-478e-924d-f6800b2067a8"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD998E8E-6230-4D8C-A5C5-417B15A62F7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6092BACC-9B51-4784-9B3D-FCA32D7251B8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -676,4 +672,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AD998E8E-6230-4D8C-A5C5-417B15A62F7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C5A4F498-0015-47D4-A84C-7239DD12C3BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="c9127654-6309-479f-9003-d42118ec806e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="67501b9c-5b3b-478e-924d-f6800b2067a8"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>